--- a/biology/Médecine/Tachycardie_jonctionnelle_hisienne/Tachycardie_jonctionnelle_hisienne.xlsx
+++ b/biology/Médecine/Tachycardie_jonctionnelle_hisienne/Tachycardie_jonctionnelle_hisienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tachycardie jonctionnelle hisienne est un trouble du rythme supraventriculaire (le foyer ectopique est dans le faisceau de His) se rencontrant surtout chez le jeune enfant.
 Les circonstances de découverte sont une insuffisance cardiaque chez un nourrisson mais peuvent exister in utero responsable d'anasarque fœtale ou de mort fœtale.
